--- a/data/input/absenteeism_data_18.xlsx
+++ b/data/input/absenteeism_data_18.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54596</v>
+        <v>56147</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rebeca Souza</t>
+          <t>Dra. Alícia Lopes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>11593.36</v>
+        <v>6685.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>76060</v>
+        <v>16692</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Julia Pinto</t>
+          <t>Davi Lucas da Cruz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45101</v>
+        <v>45089</v>
       </c>
       <c r="G3" t="n">
-        <v>4503.57</v>
+        <v>3205.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40183</v>
+        <v>75318</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rafaela Cardoso</t>
+          <t>Yasmin Silva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45088</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>2947.93</v>
+        <v>12175.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>71617</v>
+        <v>95005</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lorena Almeida</t>
+          <t>Rebeca Azevedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,187 +581,187 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45101</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>12126.91</v>
+        <v>4088.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91892</v>
+        <v>71346</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mariane Rocha</t>
+          <t>João Pedro Pires</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>4196.83</v>
+        <v>7480.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>92812</v>
+        <v>57799</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Clara Porto</t>
+          <t>Leonardo Cardoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45095</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>8678.65</v>
+        <v>5753.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56893</v>
+        <v>31382</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Isis Sales</t>
+          <t>Elisa Monteiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>11281.05</v>
+        <v>7433.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79830</v>
+        <v>84637</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bernardo da Mota</t>
+          <t>Dr. Luiz Gustavo Porto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45103</v>
+        <v>45097</v>
       </c>
       <c r="G9" t="n">
-        <v>10757.77</v>
+        <v>8137.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>98807</v>
+        <v>56919</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cauã Alves</t>
+          <t>Srta. Bárbara Peixoto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G10" t="n">
-        <v>2723.27</v>
+        <v>8471.280000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>61634</v>
+        <v>47937</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Noah Campos</t>
+          <t>Nathan Gomes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45078</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>7752.37</v>
+        <v>8481.629999999999</v>
       </c>
     </row>
   </sheetData>
